--- a/Labs/Lab1/results.xlsx
+++ b/Labs/Lab1/results.xlsx
@@ -340,266 +340,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5.51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>4.91</v>
+      </c>
+      <c r="F5">
+        <v>4.89</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>4.91</v>
+      </c>
+      <c r="F6">
+        <v>4.94</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>5.62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>4.91</v>
+      </c>
+      <c r="F7">
+        <v>4.99</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>4.91</v>
+      </c>
+      <c r="F8">
+        <v>5.04</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
+        <v>4.92</v>
+      </c>
+      <c r="F9">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>4.92</v>
+      </c>
+      <c r="F10">
+        <v>5.14</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>4.92</v>
+      </c>
+      <c r="F11">
+        <v>5.19</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>4.92</v>
+      </c>
+      <c r="F12">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
+        <v>4.93</v>
+      </c>
+      <c r="F13">
         <v>5.29</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>5.67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>4.94</v>
+      </c>
+      <c r="F14">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>5.03</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>4.94</v>
+      </c>
+      <c r="F15">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>4.95</v>
+      </c>
+      <c r="F16">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>4.86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>4.95</v>
+      </c>
+      <c r="F17">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>5.12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>4.96</v>
+      </c>
+      <c r="F18">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>5.62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>5.07</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>4.93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>5.32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>5.17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>4.93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>5.41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>5.08</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -607,7 +670,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>5.42</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -615,7 +678,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>4.98</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -623,7 +686,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>5.58</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -631,7 +694,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>5.66</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -639,7 +702,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>5.19</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -647,7 +710,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>5.53</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -655,7 +718,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>5.51</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -663,7 +726,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>5.25</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -671,7 +734,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>5.41</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -679,7 +742,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>5.69</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -687,7 +750,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>4.87</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -695,7 +758,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>5.79</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -703,7 +766,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -711,7 +774,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>5.46</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -719,7 +782,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>5.27</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -727,7 +790,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>5.49</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -735,407 +798,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>4.98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>5.08</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>5.12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>5.53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>5.53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>5.72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>5.67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>5.77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>4.86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>5.32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>5.26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>5.03</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>72</v>
-      </c>
-      <c r="B72">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <v>5.11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <v>5.59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>5.12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>5.12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>77</v>
-      </c>
-      <c r="B77">
-        <v>5.59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>5.08</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>79</v>
-      </c>
-      <c r="B79">
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>81</v>
-      </c>
-      <c r="B81">
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>82</v>
-      </c>
-      <c r="B82">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>83</v>
-      </c>
-      <c r="B83">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>5.61</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>85</v>
-      </c>
-      <c r="B85">
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <v>5.38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <v>5.63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <v>4.81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <v>5.21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <v>5.34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>96</v>
-      </c>
-      <c r="B96">
-        <v>5.07</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>97</v>
-      </c>
-      <c r="B97">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <v>98</v>
-      </c>
-      <c r="B98">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>99</v>
-      </c>
-      <c r="B99">
-        <v>5.44</v>
+        <v>5.1</v>
       </c>
     </row>
   </sheetData>

--- a/Labs/Lab1/results.xlsx
+++ b/Labs/Lab1/results.xlsx
@@ -340,329 +340,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>4.89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4.89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4.91</v>
-      </c>
-      <c r="F5">
-        <v>4.89</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4.91</v>
-      </c>
-      <c r="F6">
-        <v>4.94</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4.91</v>
-      </c>
-      <c r="F7">
-        <v>4.99</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>4.91</v>
-      </c>
-      <c r="F8">
-        <v>5.04</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>4.92</v>
-      </c>
-      <c r="F9">
-        <v>5.09</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>4.92</v>
-      </c>
-      <c r="F10">
-        <v>5.14</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>4.92</v>
-      </c>
-      <c r="F11">
-        <v>5.19</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>4.92</v>
-      </c>
-      <c r="F12">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4.93</v>
-      </c>
-      <c r="F13">
-        <v>5.29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4.94</v>
-      </c>
-      <c r="F14">
-        <v>5.34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>4.94</v>
-      </c>
-      <c r="F15">
-        <v>5.39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>4.95</v>
-      </c>
-      <c r="F16">
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17">
         <v>4.95</v>
       </c>
-      <c r="F17">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18">
         <v>4.96</v>
       </c>
-      <c r="F18">
-        <v>5.54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>4.97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>4.97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>4.98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>4.98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>5.02</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>5.03</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>5.03</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -670,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>5.03</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -678,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>5.04</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -686,7 +623,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>5.04</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -694,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>5.05</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -702,7 +639,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>5.05</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -710,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>5.05</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -718,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>5.06</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -726,7 +663,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>5.06</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -734,7 +671,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>5.06</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -742,7 +679,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>5.07</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -750,7 +687,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>5.07</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -758,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>5.07</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -766,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>5.07</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -774,7 +711,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>5.08</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -782,7 +719,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>5.08</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -790,7 +727,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>5.09</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -798,7 +735,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>5.1</v>
+        <v>5.37</v>
       </c>
     </row>
   </sheetData>
